--- a/Excel/professorpatterns-v1.xlsx
+++ b/Excel/professorpatterns-v1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -489,17 +502,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.39453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.35546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.4296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -539,7 +554,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -559,7 +574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -579,7 +594,7 @@
         <v>38.93333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -599,7 +614,7 @@
         <v>28.911111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -619,7 +634,7 @@
         <v>26.37037037037037</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -639,7 +654,7 @@
         <v>24.37037037037037</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -659,7 +674,7 @@
         <v>21.62222222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -679,7 +694,7 @@
         <v>20.659259259259262</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -699,7 +714,7 @@
         <v>16.88148148148148</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
